--- a/Figures/Table_2.xlsx
+++ b/Figures/Table_2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="15">
   <si>
     <t>VarNames</t>
   </si>
@@ -78,7 +78,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -108,11 +108,19 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -136,6 +144,14 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -160,36 +176,36 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="29" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -218,7 +234,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -247,7 +263,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -276,7 +292,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
       <c r="C5">
@@ -299,7 +315,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="29" t="s">
         <v>5</v>
       </c>
       <c r="C6">
@@ -322,7 +338,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="29" t="s">
         <v>6</v>
       </c>
       <c r="C7">

--- a/Figures/Table_2.xlsx
+++ b/Figures/Table_2.xlsx
@@ -13,7 +13,187 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="75">
+  <si>
+    <t>VarNames</t>
+  </si>
+  <si>
+    <t>Population 1920s</t>
+  </si>
+  <si>
+    <t>Population 1930s</t>
+  </si>
+  <si>
+    <t>Population 1940s</t>
+  </si>
+  <si>
+    <t>Population Density 1920s</t>
+  </si>
+  <si>
+    <t>Population Density 1930s</t>
+  </si>
+  <si>
+    <t>Population Density 1940s</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>VarNames</t>
+  </si>
+  <si>
+    <t>Population 1920s</t>
+  </si>
+  <si>
+    <t>Population 1930s</t>
+  </si>
+  <si>
+    <t>Population 1940s</t>
+  </si>
+  <si>
+    <t>Population Density 1920s</t>
+  </si>
+  <si>
+    <t>Population Density 1930s</t>
+  </si>
+  <si>
+    <t>Population Density 1940s</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>VarNames</t>
+  </si>
+  <si>
+    <t>Population 1920s</t>
+  </si>
+  <si>
+    <t>Population 1930s</t>
+  </si>
+  <si>
+    <t>Population 1940s</t>
+  </si>
+  <si>
+    <t>Population Density 1920s</t>
+  </si>
+  <si>
+    <t>Population Density 1930s</t>
+  </si>
+  <si>
+    <t>Population Density 1940s</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>VarNames</t>
+  </si>
+  <si>
+    <t>Population 1920s</t>
+  </si>
+  <si>
+    <t>Population 1930s</t>
+  </si>
+  <si>
+    <t>Population 1940s</t>
+  </si>
+  <si>
+    <t>Population Density 1920s</t>
+  </si>
+  <si>
+    <t>Population Density 1930s</t>
+  </si>
+  <si>
+    <t>Population Density 1940s</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
   <si>
     <t>VarNames</t>
   </si>
@@ -78,7 +258,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -116,11 +296,15 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -152,6 +336,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -177,183 +365,190 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="29" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
+        <v>61</v>
+      </c>
+      <c r="B2" s="0">
         <v>422130.20000000001</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0">
         <v>947923.19999999995</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0">
         <v>219894.39999999999</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="0">
         <v>1079858.3999999999</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="0">
         <v>837594.90000000002</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="0">
         <v>4540000.2999999998</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="0">
         <v>749970</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="0">
         <v>519223.90000000002</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
+        <v>62</v>
+      </c>
+      <c r="B3" s="0">
         <v>425201.79999999999</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0">
         <v>1023811.1111111111</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0">
         <v>222657.79999999999</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0">
         <v>1088828.5</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="0">
         <v>858783.09999999998</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="0">
         <v>4230295.4000000004</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="0">
         <v>746974</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="0">
         <v>517967</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+        <v>63</v>
+      </c>
+      <c r="B4" s="0">
         <v>442934.70000000001</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0">
         <v>1053156.6666666667</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0">
         <v>227860.70000000001</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0">
         <v>1089367.7</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="0">
         <v>720112.09999999998</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="0">
         <v>2863548</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="0">
         <v>641040</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="0">
         <v>492093</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5">
+        <v>64</v>
+      </c>
+      <c r="B5" s="0"/>
+      <c r="C5" s="0">
         <v>21.159584187104514</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="0">
         <v>20.649999999999999</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="0">
         <v>51</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="0">
         <v>40.044444444444451</v>
       </c>
-      <c r="H5">
+      <c r="G5" s="0"/>
+      <c r="H5" s="0">
         <v>34.799999999999997</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="0">
         <v>16.625</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
+        <v>65</v>
+      </c>
+      <c r="B6" s="0"/>
+      <c r="C6" s="0">
         <v>20.040692055928247</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="0">
         <v>17.990000000000002</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="0">
         <v>35.299999999999997</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="0">
         <v>32</v>
       </c>
-      <c r="H6">
+      <c r="G6" s="0"/>
+      <c r="H6" s="0">
         <v>28.5</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="0">
         <v>13.800000000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7">
+        <v>66</v>
+      </c>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0">
         <v>20.511553856096693</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="0">
         <v>16.850000000000001</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="0">
         <v>26.888888888888889</v>
       </c>
-      <c r="H7">
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0">
         <v>23.875</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="0">
         <v>12.5</v>
       </c>
     </row>

--- a/Figures/Table_2.xlsx
+++ b/Figures/Table_2.xlsx
@@ -13,142 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="75">
-  <si>
-    <t>VarNames</t>
-  </si>
-  <si>
-    <t>Population 1920s</t>
-  </si>
-  <si>
-    <t>Population 1930s</t>
-  </si>
-  <si>
-    <t>Population 1940s</t>
-  </si>
-  <si>
-    <t>Population Density 1920s</t>
-  </si>
-  <si>
-    <t>Population Density 1930s</t>
-  </si>
-  <si>
-    <t>Population Density 1940s</t>
-  </si>
-  <si>
-    <t>Belfast</t>
-  </si>
-  <si>
-    <t>Birmingham</t>
-  </si>
-  <si>
-    <t>Cardiff</t>
-  </si>
-  <si>
-    <t>Glasgow</t>
-  </si>
-  <si>
-    <t>Liverpool</t>
-  </si>
-  <si>
-    <t>London</t>
-  </si>
-  <si>
-    <t>Manchester</t>
-  </si>
-  <si>
-    <t>Sheffield</t>
-  </si>
-  <si>
-    <t>VarNames</t>
-  </si>
-  <si>
-    <t>Population 1920s</t>
-  </si>
-  <si>
-    <t>Population 1930s</t>
-  </si>
-  <si>
-    <t>Population 1940s</t>
-  </si>
-  <si>
-    <t>Population Density 1920s</t>
-  </si>
-  <si>
-    <t>Population Density 1930s</t>
-  </si>
-  <si>
-    <t>Population Density 1940s</t>
-  </si>
-  <si>
-    <t>Belfast</t>
-  </si>
-  <si>
-    <t>Birmingham</t>
-  </si>
-  <si>
-    <t>Cardiff</t>
-  </si>
-  <si>
-    <t>Glasgow</t>
-  </si>
-  <si>
-    <t>Liverpool</t>
-  </si>
-  <si>
-    <t>London</t>
-  </si>
-  <si>
-    <t>Manchester</t>
-  </si>
-  <si>
-    <t>Sheffield</t>
-  </si>
-  <si>
-    <t>VarNames</t>
-  </si>
-  <si>
-    <t>Population 1920s</t>
-  </si>
-  <si>
-    <t>Population 1930s</t>
-  </si>
-  <si>
-    <t>Population 1940s</t>
-  </si>
-  <si>
-    <t>Population Density 1920s</t>
-  </si>
-  <si>
-    <t>Population Density 1930s</t>
-  </si>
-  <si>
-    <t>Population Density 1940s</t>
-  </si>
-  <si>
-    <t>Belfast</t>
-  </si>
-  <si>
-    <t>Birmingham</t>
-  </si>
-  <si>
-    <t>Cardiff</t>
-  </si>
-  <si>
-    <t>Glasgow</t>
-  </si>
-  <si>
-    <t>Liverpool</t>
-  </si>
-  <si>
-    <t>London</t>
-  </si>
-  <si>
-    <t>Manchester</t>
-  </si>
-  <si>
-    <t>Sheffield</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>VarNames</t>
   </si>
@@ -258,7 +123,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -267,79 +132,13 @@
       <diagonal/>
     </border>
     <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -364,37 +163,37 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="I1" s="29" t="s">
-        <v>74</v>
+      <c r="A1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="29" t="s">
-        <v>61</v>
+      <c r="A2" s="0" t="s">
+        <v>16</v>
       </c>
       <c r="B2" s="0">
         <v>422130.20000000001</v>
@@ -422,8 +221,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="29" t="s">
-        <v>62</v>
+      <c r="A3" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="B3" s="0">
         <v>425201.79999999999</v>
@@ -451,8 +250,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="29" t="s">
-        <v>63</v>
+      <c r="A4" s="0" t="s">
+        <v>18</v>
       </c>
       <c r="B4" s="0">
         <v>442934.70000000001</v>
@@ -480,8 +279,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="29" t="s">
-        <v>64</v>
+      <c r="A5" s="0" t="s">
+        <v>19</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -505,8 +304,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="29" t="s">
-        <v>65</v>
+      <c r="A6" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -530,8 +329,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="29" t="s">
-        <v>66</v>
+      <c r="A7" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">

--- a/Figures/Table_2.xlsx
+++ b/Figures/Table_2.xlsx
@@ -13,7 +13,52 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+  <si>
+    <t>VarNames</t>
+  </si>
+  <si>
+    <t>Population 1920s</t>
+  </si>
+  <si>
+    <t>Population 1930s</t>
+  </si>
+  <si>
+    <t>Population 1940s</t>
+  </si>
+  <si>
+    <t>Population Density 1920s</t>
+  </si>
+  <si>
+    <t>Population Density 1930s</t>
+  </si>
+  <si>
+    <t>Population Density 1940s</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
   <si>
     <t>VarNames</t>
   </si>
@@ -164,36 +209,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B2" s="0">
         <v>422130.20000000001</v>
@@ -222,7 +267,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B3" s="0">
         <v>425201.79999999999</v>
@@ -251,7 +296,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B4" s="0">
         <v>442934.70000000001</v>
@@ -280,7 +325,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -305,7 +350,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -330,7 +375,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">

--- a/Figures/Table_2.xlsx
+++ b/Figures/Table_2.xlsx
@@ -13,7 +13,592 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="240">
+  <si>
+    <t>VarNames</t>
+  </si>
+  <si>
+    <t>Population 1920s</t>
+  </si>
+  <si>
+    <t>Population 1930s</t>
+  </si>
+  <si>
+    <t>Population 1940s</t>
+  </si>
+  <si>
+    <t>Population Density 1920s</t>
+  </si>
+  <si>
+    <t>Population Density 1930s</t>
+  </si>
+  <si>
+    <t>Population Density 1940s</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>VarNames</t>
+  </si>
+  <si>
+    <t>Population 1920s</t>
+  </si>
+  <si>
+    <t>Population 1930s</t>
+  </si>
+  <si>
+    <t>Population 1940s</t>
+  </si>
+  <si>
+    <t>Population Density 1920s</t>
+  </si>
+  <si>
+    <t>Population Density 1930s</t>
+  </si>
+  <si>
+    <t>Population Density 1940s</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>VarNames</t>
+  </si>
+  <si>
+    <t>Population 1920s</t>
+  </si>
+  <si>
+    <t>Population 1930s</t>
+  </si>
+  <si>
+    <t>Population 1940s</t>
+  </si>
+  <si>
+    <t>Population Density 1920s</t>
+  </si>
+  <si>
+    <t>Population Density 1930s</t>
+  </si>
+  <si>
+    <t>Population Density 1940s</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>VarNames</t>
+  </si>
+  <si>
+    <t>Population 1920s</t>
+  </si>
+  <si>
+    <t>Population 1930s</t>
+  </si>
+  <si>
+    <t>Population 1940s</t>
+  </si>
+  <si>
+    <t>Population Density 1920s</t>
+  </si>
+  <si>
+    <t>Population Density 1930s</t>
+  </si>
+  <si>
+    <t>Population Density 1940s</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>VarNames</t>
+  </si>
+  <si>
+    <t>Population 1920s</t>
+  </si>
+  <si>
+    <t>Population 1930s</t>
+  </si>
+  <si>
+    <t>Population 1940s</t>
+  </si>
+  <si>
+    <t>Population Density 1920s</t>
+  </si>
+  <si>
+    <t>Population Density 1930s</t>
+  </si>
+  <si>
+    <t>Population Density 1940s</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>VarNames</t>
+  </si>
+  <si>
+    <t>Population 1920s</t>
+  </si>
+  <si>
+    <t>Population 1930s</t>
+  </si>
+  <si>
+    <t>Population 1940s</t>
+  </si>
+  <si>
+    <t>Population Density 1920s</t>
+  </si>
+  <si>
+    <t>Population Density 1930s</t>
+  </si>
+  <si>
+    <t>Population Density 1940s</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>VarNames</t>
+  </si>
+  <si>
+    <t>Population 1920s</t>
+  </si>
+  <si>
+    <t>Population 1930s</t>
+  </si>
+  <si>
+    <t>Population 1940s</t>
+  </si>
+  <si>
+    <t>Population Density 1920s</t>
+  </si>
+  <si>
+    <t>Population Density 1930s</t>
+  </si>
+  <si>
+    <t>Population Density 1940s</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>VarNames</t>
+  </si>
+  <si>
+    <t>Population 1920s</t>
+  </si>
+  <si>
+    <t>Population 1930s</t>
+  </si>
+  <si>
+    <t>Population 1940s</t>
+  </si>
+  <si>
+    <t>Population Density 1920s</t>
+  </si>
+  <si>
+    <t>Population Density 1930s</t>
+  </si>
+  <si>
+    <t>Population Density 1940s</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>VarNames</t>
+  </si>
+  <si>
+    <t>Population 1920s</t>
+  </si>
+  <si>
+    <t>Population 1930s</t>
+  </si>
+  <si>
+    <t>Population 1940s</t>
+  </si>
+  <si>
+    <t>Population Density 1920s</t>
+  </si>
+  <si>
+    <t>Population Density 1930s</t>
+  </si>
+  <si>
+    <t>Population Density 1940s</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>VarNames</t>
+  </si>
+  <si>
+    <t>Population 1920s</t>
+  </si>
+  <si>
+    <t>Population 1930s</t>
+  </si>
+  <si>
+    <t>Population 1940s</t>
+  </si>
+  <si>
+    <t>Population Density 1920s</t>
+  </si>
+  <si>
+    <t>Population Density 1930s</t>
+  </si>
+  <si>
+    <t>Population Density 1940s</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>VarNames</t>
+  </si>
+  <si>
+    <t>Population 1920s</t>
+  </si>
+  <si>
+    <t>Population 1930s</t>
+  </si>
+  <si>
+    <t>Population 1940s</t>
+  </si>
+  <si>
+    <t>Population Density 1920s</t>
+  </si>
+  <si>
+    <t>Population Density 1930s</t>
+  </si>
+  <si>
+    <t>Population Density 1940s</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>VarNames</t>
+  </si>
+  <si>
+    <t>Population 1920s</t>
+  </si>
+  <si>
+    <t>Population 1930s</t>
+  </si>
+  <si>
+    <t>Population 1940s</t>
+  </si>
+  <si>
+    <t>Population Density 1920s</t>
+  </si>
+  <si>
+    <t>Population Density 1930s</t>
+  </si>
+  <si>
+    <t>Population Density 1940s</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>VarNames</t>
+  </si>
+  <si>
+    <t>Population 1920s</t>
+  </si>
+  <si>
+    <t>Population 1930s</t>
+  </si>
+  <si>
+    <t>Population 1940s</t>
+  </si>
+  <si>
+    <t>Population Density 1920s</t>
+  </si>
+  <si>
+    <t>Population Density 1930s</t>
+  </si>
+  <si>
+    <t>Population Density 1940s</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
   <si>
     <t>VarNames</t>
   </si>
@@ -209,36 +794,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>30</v>
+        <v>225</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>37</v>
+        <v>232</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>38</v>
+        <v>233</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>39</v>
+        <v>234</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>40</v>
+        <v>235</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>41</v>
+        <v>236</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>42</v>
+        <v>237</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>43</v>
+        <v>238</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>44</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>31</v>
+        <v>226</v>
       </c>
       <c r="B2" s="0">
         <v>422130.20000000001</v>
@@ -267,7 +852,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="B3" s="0">
         <v>425201.79999999999</v>
@@ -296,7 +881,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>33</v>
+        <v>228</v>
       </c>
       <c r="B4" s="0">
         <v>442934.70000000001</v>
@@ -325,7 +910,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>34</v>
+        <v>229</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -350,7 +935,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>35</v>
+        <v>230</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -375,7 +960,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>36</v>
+        <v>231</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">

--- a/Figures/Table_2.xlsx
+++ b/Figures/Table_2.xlsx
@@ -13,7 +13,277 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="330">
+  <si>
+    <t>VarNames</t>
+  </si>
+  <si>
+    <t>Population 1920s</t>
+  </si>
+  <si>
+    <t>Population 1930s</t>
+  </si>
+  <si>
+    <t>Population 1940s</t>
+  </si>
+  <si>
+    <t>Population Density 1920s</t>
+  </si>
+  <si>
+    <t>Population Density 1930s</t>
+  </si>
+  <si>
+    <t>Population Density 1940s</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>VarNames</t>
+  </si>
+  <si>
+    <t>Population 1920s</t>
+  </si>
+  <si>
+    <t>Population 1930s</t>
+  </si>
+  <si>
+    <t>Population 1940s</t>
+  </si>
+  <si>
+    <t>Population Density 1920s</t>
+  </si>
+  <si>
+    <t>Population Density 1930s</t>
+  </si>
+  <si>
+    <t>Population Density 1940s</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>VarNames</t>
+  </si>
+  <si>
+    <t>Population 1920s</t>
+  </si>
+  <si>
+    <t>Population 1930s</t>
+  </si>
+  <si>
+    <t>Population 1940s</t>
+  </si>
+  <si>
+    <t>Population Density 1920s</t>
+  </si>
+  <si>
+    <t>Population Density 1930s</t>
+  </si>
+  <si>
+    <t>Population Density 1940s</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>VarNames</t>
+  </si>
+  <si>
+    <t>Population 1920s</t>
+  </si>
+  <si>
+    <t>Population 1930s</t>
+  </si>
+  <si>
+    <t>Population 1940s</t>
+  </si>
+  <si>
+    <t>Population Density 1920s</t>
+  </si>
+  <si>
+    <t>Population Density 1930s</t>
+  </si>
+  <si>
+    <t>Population Density 1940s</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>VarNames</t>
+  </si>
+  <si>
+    <t>Population 1920s</t>
+  </si>
+  <si>
+    <t>Population 1930s</t>
+  </si>
+  <si>
+    <t>Population 1940s</t>
+  </si>
+  <si>
+    <t>Population Density 1920s</t>
+  </si>
+  <si>
+    <t>Population Density 1930s</t>
+  </si>
+  <si>
+    <t>Population Density 1940s</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>VarNames</t>
+  </si>
+  <si>
+    <t>Population 1920s</t>
+  </si>
+  <si>
+    <t>Population 1930s</t>
+  </si>
+  <si>
+    <t>Population 1940s</t>
+  </si>
+  <si>
+    <t>Population Density 1920s</t>
+  </si>
+  <si>
+    <t>Population Density 1930s</t>
+  </si>
+  <si>
+    <t>Population Density 1940s</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
   <si>
     <t>VarNames</t>
   </si>
@@ -794,36 +1064,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>225</v>
+        <v>315</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>232</v>
+        <v>322</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>233</v>
+        <v>323</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>234</v>
+        <v>324</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>235</v>
+        <v>325</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>236</v>
+        <v>326</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>237</v>
+        <v>327</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>238</v>
+        <v>328</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>239</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>226</v>
+        <v>316</v>
       </c>
       <c r="B2" s="0">
         <v>422130.20000000001</v>
@@ -852,7 +1122,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>227</v>
+        <v>317</v>
       </c>
       <c r="B3" s="0">
         <v>425201.79999999999</v>
@@ -881,7 +1151,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>228</v>
+        <v>318</v>
       </c>
       <c r="B4" s="0">
         <v>442934.70000000001</v>
@@ -910,7 +1180,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>229</v>
+        <v>319</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -935,7 +1205,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>230</v>
+        <v>320</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -960,7 +1230,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>231</v>
+        <v>321</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">

--- a/Figures/Table_2.xlsx
+++ b/Figures/Table_2.xlsx
@@ -13,7 +13,232 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="405">
+  <si>
+    <t>VarNames</t>
+  </si>
+  <si>
+    <t>Population 1920s</t>
+  </si>
+  <si>
+    <t>Population 1930s</t>
+  </si>
+  <si>
+    <t>Population 1940s</t>
+  </si>
+  <si>
+    <t>Population Density 1920s</t>
+  </si>
+  <si>
+    <t>Population Density 1930s</t>
+  </si>
+  <si>
+    <t>Population Density 1940s</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>VarNames</t>
+  </si>
+  <si>
+    <t>Population 1920s</t>
+  </si>
+  <si>
+    <t>Population 1930s</t>
+  </si>
+  <si>
+    <t>Population 1940s</t>
+  </si>
+  <si>
+    <t>Population Density 1920s</t>
+  </si>
+  <si>
+    <t>Population Density 1930s</t>
+  </si>
+  <si>
+    <t>Population Density 1940s</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>VarNames</t>
+  </si>
+  <si>
+    <t>Population 1920s</t>
+  </si>
+  <si>
+    <t>Population 1930s</t>
+  </si>
+  <si>
+    <t>Population 1940s</t>
+  </si>
+  <si>
+    <t>Population Density 1920s</t>
+  </si>
+  <si>
+    <t>Population Density 1930s</t>
+  </si>
+  <si>
+    <t>Population Density 1940s</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>VarNames</t>
+  </si>
+  <si>
+    <t>Population 1920s</t>
+  </si>
+  <si>
+    <t>Population 1930s</t>
+  </si>
+  <si>
+    <t>Population 1940s</t>
+  </si>
+  <si>
+    <t>Population Density 1920s</t>
+  </si>
+  <si>
+    <t>Population Density 1930s</t>
+  </si>
+  <si>
+    <t>Population Density 1940s</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>VarNames</t>
+  </si>
+  <si>
+    <t>Population 1920s</t>
+  </si>
+  <si>
+    <t>Population 1930s</t>
+  </si>
+  <si>
+    <t>Population 1940s</t>
+  </si>
+  <si>
+    <t>Population Density 1920s</t>
+  </si>
+  <si>
+    <t>Population Density 1930s</t>
+  </si>
+  <si>
+    <t>Population Density 1940s</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
   <si>
     <t>VarNames</t>
   </si>
@@ -1064,36 +1289,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>315</v>
+        <v>390</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>322</v>
+        <v>397</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>323</v>
+        <v>398</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>324</v>
+        <v>399</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>325</v>
+        <v>400</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>326</v>
+        <v>401</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>327</v>
+        <v>402</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>328</v>
+        <v>403</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>329</v>
+        <v>404</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>316</v>
+        <v>391</v>
       </c>
       <c r="B2" s="0">
         <v>422130.20000000001</v>
@@ -1122,7 +1347,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>317</v>
+        <v>392</v>
       </c>
       <c r="B3" s="0">
         <v>425201.79999999999</v>
@@ -1151,7 +1376,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>318</v>
+        <v>393</v>
       </c>
       <c r="B4" s="0">
         <v>442934.70000000001</v>
@@ -1180,7 +1405,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -1205,7 +1430,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>320</v>
+        <v>395</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -1230,7 +1455,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>321</v>
+        <v>396</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">

--- a/Figures/Table_2.xlsx
+++ b/Figures/Table_2.xlsx
@@ -13,7 +13,52 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="420">
+  <si>
+    <t>VarNames</t>
+  </si>
+  <si>
+    <t>Population 1920s</t>
+  </si>
+  <si>
+    <t>Population 1930s</t>
+  </si>
+  <si>
+    <t>Population 1940s</t>
+  </si>
+  <si>
+    <t>Population Density 1920s</t>
+  </si>
+  <si>
+    <t>Population Density 1930s</t>
+  </si>
+  <si>
+    <t>Population Density 1940s</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
   <si>
     <t>VarNames</t>
   </si>
@@ -1289,36 +1334,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="B2" s="0">
         <v>422130.20000000001</v>
@@ -1347,7 +1392,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="B3" s="0">
         <v>425201.79999999999</v>
@@ -1376,7 +1421,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="B4" s="0">
         <v>442934.70000000001</v>
@@ -1405,7 +1450,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -1430,7 +1475,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -1455,7 +1500,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">

--- a/Figures/Table_2.xlsx
+++ b/Figures/Table_2.xlsx
@@ -13,7 +13,322 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="525">
+  <si>
+    <t>VarNames</t>
+  </si>
+  <si>
+    <t>Population 1920s</t>
+  </si>
+  <si>
+    <t>Population 1930s</t>
+  </si>
+  <si>
+    <t>Population 1940s</t>
+  </si>
+  <si>
+    <t>Population Density 1920s</t>
+  </si>
+  <si>
+    <t>Population Density 1930s</t>
+  </si>
+  <si>
+    <t>Population Density 1940s</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>VarNames</t>
+  </si>
+  <si>
+    <t>Population 1920s</t>
+  </si>
+  <si>
+    <t>Population 1930s</t>
+  </si>
+  <si>
+    <t>Population 1940s</t>
+  </si>
+  <si>
+    <t>Population Density 1920s</t>
+  </si>
+  <si>
+    <t>Population Density 1930s</t>
+  </si>
+  <si>
+    <t>Population Density 1940s</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>VarNames</t>
+  </si>
+  <si>
+    <t>Population 1920s</t>
+  </si>
+  <si>
+    <t>Population 1930s</t>
+  </si>
+  <si>
+    <t>Population 1940s</t>
+  </si>
+  <si>
+    <t>Population Density 1920s</t>
+  </si>
+  <si>
+    <t>Population Density 1930s</t>
+  </si>
+  <si>
+    <t>Population Density 1940s</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>VarNames</t>
+  </si>
+  <si>
+    <t>Population 1920s</t>
+  </si>
+  <si>
+    <t>Population 1930s</t>
+  </si>
+  <si>
+    <t>Population 1940s</t>
+  </si>
+  <si>
+    <t>Population Density 1920s</t>
+  </si>
+  <si>
+    <t>Population Density 1930s</t>
+  </si>
+  <si>
+    <t>Population Density 1940s</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>VarNames</t>
+  </si>
+  <si>
+    <t>Population 1920s</t>
+  </si>
+  <si>
+    <t>Population 1930s</t>
+  </si>
+  <si>
+    <t>Population 1940s</t>
+  </si>
+  <si>
+    <t>Population Density 1920s</t>
+  </si>
+  <si>
+    <t>Population Density 1930s</t>
+  </si>
+  <si>
+    <t>Population Density 1940s</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>VarNames</t>
+  </si>
+  <si>
+    <t>Population 1920s</t>
+  </si>
+  <si>
+    <t>Population 1930s</t>
+  </si>
+  <si>
+    <t>Population 1940s</t>
+  </si>
+  <si>
+    <t>Population Density 1920s</t>
+  </si>
+  <si>
+    <t>Population Density 1930s</t>
+  </si>
+  <si>
+    <t>Population Density 1940s</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>VarNames</t>
+  </si>
+  <si>
+    <t>Population 1920s</t>
+  </si>
+  <si>
+    <t>Population 1930s</t>
+  </si>
+  <si>
+    <t>Population 1940s</t>
+  </si>
+  <si>
+    <t>Population Density 1920s</t>
+  </si>
+  <si>
+    <t>Population Density 1930s</t>
+  </si>
+  <si>
+    <t>Population Density 1940s</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
   <si>
     <t>VarNames</t>
   </si>
@@ -1334,36 +1649,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>405</v>
+        <v>510</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>412</v>
+        <v>517</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>413</v>
+        <v>518</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>414</v>
+        <v>519</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>415</v>
+        <v>520</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>416</v>
+        <v>521</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>417</v>
+        <v>522</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>418</v>
+        <v>523</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>419</v>
+        <v>524</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>406</v>
+        <v>511</v>
       </c>
       <c r="B2" s="0">
         <v>422130.20000000001</v>
@@ -1392,7 +1707,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>407</v>
+        <v>512</v>
       </c>
       <c r="B3" s="0">
         <v>425201.79999999999</v>
@@ -1421,7 +1736,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>408</v>
+        <v>513</v>
       </c>
       <c r="B4" s="0">
         <v>442934.70000000001</v>
@@ -1450,7 +1765,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>409</v>
+        <v>514</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0">
@@ -1475,7 +1790,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>410</v>
+        <v>515</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0">
@@ -1500,7 +1815,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>411</v>
+        <v>516</v>
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0">

--- a/Figures/Table_2.xlsx
+++ b/Figures/Table_2.xlsx
@@ -9,9 +9,8 @@
     <sheet name="Base Model" sheetId="2" r:id="rId3"/>
     <sheet name="Common Bounds Model" sheetId="3" r:id="rId5"/>
     <sheet name="Estimated Bounds Model" sheetId="4" r:id="rId6"/>
-    <sheet name="Estimated Bounds Model v2" sheetId="5" r:id="rId7"/>
-    <sheet name="Theoretical Bounds Model" sheetId="6" r:id="rId8"/>
-    <sheet name="Weibull Model" sheetId="7" r:id="rId9"/>
+    <sheet name="Theoretical Bounds Model" sheetId="5" r:id="rId7"/>
+    <sheet name="Weibull Model" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -19,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>Var1</t>
   </si>
@@ -121,66 +120,6 @@
   </si>
   <si>
     <t>Sheffield</t>
-  </si>
-  <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>\lambda</t>
-  </si>
-  <si>
-    <t>\eta_{0}</t>
-  </si>
-  <si>
-    <t>d_{min}</t>
-  </si>
-  <si>
-    <t>d_{max}</t>
-  </si>
-  <si>
-    <t>Observations</t>
-  </si>
-  <si>
-    <t>Belfast</t>
-  </si>
-  <si>
-    <t>Birmingham</t>
-  </si>
-  <si>
-    <t>Cardiff</t>
-  </si>
-  <si>
-    <t>Glasgow</t>
-  </si>
-  <si>
-    <t>Liverpool</t>
-  </si>
-  <si>
-    <t>London</t>
-  </si>
-  <si>
-    <t>Manchester</t>
-  </si>
-  <si>
-    <t>Sheffield</t>
-  </si>
-  <si>
-    <t>US</t>
-  </si>
-  <si>
-    <t>England &amp; Wales 1848</t>
-  </si>
-  <si>
-    <t>England &amp; Wales 1890</t>
-  </si>
-  <si>
-    <t>England &amp; Wales 1918</t>
-  </si>
-  <si>
-    <t>England &amp; Wales 1957</t>
-  </si>
-  <si>
-    <t>England &amp; Wales 1968</t>
   </si>
   <si>
     <t>Var1</t>
@@ -502,7 +441,7 @@
         <v>0.187</v>
       </c>
       <c r="L2" s="0">
-        <v>0.087999999999999995</v>
+        <v>0.070000000000000007</v>
       </c>
       <c r="M2" s="0">
         <v>0.10199999999999999</v>
@@ -511,7 +450,7 @@
         <v>1.6910000000000001</v>
       </c>
       <c r="O2" s="0">
-        <v>0.13200000000000001</v>
+        <v>0.127</v>
       </c>
     </row>
     <row r="3">
@@ -549,7 +488,7 @@
         <v>5.9509999999999996</v>
       </c>
       <c r="L3" s="0">
-        <v>1.579</v>
+        <v>1.129</v>
       </c>
       <c r="M3" s="0">
         <v>3.3079999999999998</v>
@@ -558,7 +497,7 @@
         <v>10</v>
       </c>
       <c r="O3" s="0">
-        <v>4.194</v>
+        <v>3.9220000000000002</v>
       </c>
     </row>
     <row r="4">
@@ -906,314 +845,6 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.5703125" customWidth="true"/>
-    <col min="2" max="2" width="7.7109375" customWidth="true"/>
-    <col min="3" max="3" width="11.85546875" customWidth="true"/>
-    <col min="4" max="4" width="7.7109375" customWidth="true"/>
-    <col min="5" max="5" width="8.5703125" customWidth="true"/>
-    <col min="6" max="6" width="9.42578125" customWidth="true"/>
-    <col min="7" max="7" width="7.7109375" customWidth="true"/>
-    <col min="8" max="8" width="11.5703125" customWidth="true"/>
-    <col min="9" max="9" width="9.28515625" customWidth="true"/>
-    <col min="10" max="10" width="5.7109375" customWidth="true"/>
-    <col min="11" max="11" width="20.28515625" customWidth="true"/>
-    <col min="12" max="12" width="20.28515625" customWidth="true"/>
-    <col min="13" max="13" width="20.28515625" customWidth="true"/>
-    <col min="14" max="14" width="20.28515625" customWidth="true"/>
-    <col min="15" max="15" width="20.28515625" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="0">
-        <v>0.129</v>
-      </c>
-      <c r="C2" s="0">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="D2" s="0">
-        <v>0.218</v>
-      </c>
-      <c r="E2" s="0">
-        <v>0.218</v>
-      </c>
-      <c r="F2" s="0">
-        <v>0.29999999999999999</v>
-      </c>
-      <c r="G2" s="0">
-        <v>0.27200000000000002</v>
-      </c>
-      <c r="H2" s="0">
-        <v>0.223</v>
-      </c>
-      <c r="I2" s="0">
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="J2" s="0">
-        <v>0.32300000000000001</v>
-      </c>
-      <c r="K2" s="0">
-        <v>0.222</v>
-      </c>
-      <c r="L2" s="0">
-        <v>0.098000000000000004</v>
-      </c>
-      <c r="M2" s="0">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="N2" s="0">
-        <v>1.6879999999999999</v>
-      </c>
-      <c r="O2" s="0">
-        <v>0.13200000000000001</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="0">
-        <v>4.5140000000000002</v>
-      </c>
-      <c r="C3" s="0">
-        <v>10</v>
-      </c>
-      <c r="D3" s="0">
-        <v>7.0330000000000004</v>
-      </c>
-      <c r="E3" s="0">
-        <v>7.0659999999999998</v>
-      </c>
-      <c r="F3" s="0">
-        <v>10</v>
-      </c>
-      <c r="G3" s="0">
-        <v>9.0920000000000005</v>
-      </c>
-      <c r="H3" s="0">
-        <v>7.5549999999999997</v>
-      </c>
-      <c r="I3" s="0">
-        <v>8.891</v>
-      </c>
-      <c r="J3" s="0">
-        <v>10</v>
-      </c>
-      <c r="K3" s="0">
-        <v>7.2160000000000002</v>
-      </c>
-      <c r="L3" s="0">
-        <v>1.899</v>
-      </c>
-      <c r="M3" s="0">
-        <v>7.6600000000000001</v>
-      </c>
-      <c r="N3" s="0">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0">
-        <v>4.194</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="0">
-        <v>21.977</v>
-      </c>
-      <c r="C4" s="0">
-        <v>26.841000000000001</v>
-      </c>
-      <c r="D4" s="0">
-        <v>24.937999999999999</v>
-      </c>
-      <c r="E4" s="0">
-        <v>24</v>
-      </c>
-      <c r="F4" s="0">
-        <v>19</v>
-      </c>
-      <c r="G4" s="0">
-        <v>23.117999999999999</v>
-      </c>
-      <c r="H4" s="0">
-        <v>23.088000000000001</v>
-      </c>
-      <c r="I4" s="0">
-        <v>11.664</v>
-      </c>
-      <c r="J4" s="0">
-        <v>14</v>
-      </c>
-      <c r="K4" s="0">
-        <v>2</v>
-      </c>
-      <c r="L4" s="0">
-        <v>120.185</v>
-      </c>
-      <c r="M4" s="0">
-        <v>28.959</v>
-      </c>
-      <c r="N4" s="0">
-        <v>17.074999999999999</v>
-      </c>
-      <c r="O4" s="0">
-        <v>1.3300000000000001</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="0">
-        <v>831.02300000000002</v>
-      </c>
-      <c r="C5" s="0">
-        <v>1086.646</v>
-      </c>
-      <c r="D5" s="0">
-        <v>721.649</v>
-      </c>
-      <c r="E5" s="0">
-        <v>806</v>
-      </c>
-      <c r="F5" s="0">
-        <v>662.58900000000006</v>
-      </c>
-      <c r="G5" s="0">
-        <v>710</v>
-      </c>
-      <c r="H5" s="0">
-        <v>933.69100000000003</v>
-      </c>
-      <c r="I5" s="0">
-        <v>889.96100000000001</v>
-      </c>
-      <c r="J5" s="0">
-        <v>705</v>
-      </c>
-      <c r="K5" s="0">
-        <v>193</v>
-      </c>
-      <c r="L5" s="0">
-        <v>533</v>
-      </c>
-      <c r="M5" s="0">
-        <v>734.44399999999996</v>
-      </c>
-      <c r="N5" s="0">
-        <v>153.73599999999999</v>
-      </c>
-      <c r="O5" s="0">
-        <v>148.28800000000001</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="0">
-        <v>27</v>
-      </c>
-      <c r="C6" s="0">
-        <v>28</v>
-      </c>
-      <c r="D6" s="0">
-        <v>36</v>
-      </c>
-      <c r="E6" s="0">
-        <v>37</v>
-      </c>
-      <c r="F6" s="0">
-        <v>37</v>
-      </c>
-      <c r="G6" s="0">
-        <v>35</v>
-      </c>
-      <c r="H6" s="0">
-        <v>36</v>
-      </c>
-      <c r="I6" s="0">
-        <v>37</v>
-      </c>
-      <c r="J6" s="0">
-        <v>37</v>
-      </c>
-      <c r="K6" s="0">
-        <v>41</v>
-      </c>
-      <c r="L6" s="0">
-        <v>26</v>
-      </c>
-      <c r="M6" s="0">
-        <v>37</v>
-      </c>
-      <c r="N6" s="0">
-        <v>8</v>
-      </c>
-      <c r="O6" s="0">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O6"/>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="8.5703125" customWidth="true"/>
     <col min="2" max="2" width="8.7109375" customWidth="true"/>
     <col min="3" max="3" width="11.85546875" customWidth="true"/>
     <col min="4" max="4" width="8.7109375" customWidth="true"/>
@@ -1232,54 +863,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="B2" s="0">
         <v>0.082000000000000003</v>
@@ -1318,7 +949,7 @@
         <v>0.11</v>
       </c>
       <c r="N2" s="0">
-        <v>0.85799999999999998</v>
+        <v>1.151</v>
       </c>
       <c r="O2" s="0">
         <v>0.13800000000000001</v>
@@ -1326,7 +957,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="B3" s="0">
         <v>2.8919999999999999</v>
@@ -1365,7 +996,7 @@
         <v>3.7789999999999999</v>
       </c>
       <c r="N3" s="0">
-        <v>7.242</v>
+        <v>10</v>
       </c>
       <c r="O3" s="0">
         <v>4.6420000000000003</v>
@@ -1373,7 +1004,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="B4" s="0">
         <v>21.977</v>
@@ -1420,7 +1051,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="B5" s="0">
         <v>3643.7660000000001</v>
@@ -1467,7 +1098,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="B6" s="0">
         <v>27</v>
@@ -1516,7 +1147,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O6"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1540,54 +1171,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B2" s="0">
         <v>0.031</v>
@@ -1620,7 +1251,7 @@
         <v>0.052999999999999999</v>
       </c>
       <c r="L2" s="0">
-        <v>0.014</v>
+        <v>0.010999999999999999</v>
       </c>
       <c r="M2" s="0">
         <v>0.034000000000000002</v>
@@ -1629,12 +1260,12 @@
         <v>0.058000000000000003</v>
       </c>
       <c r="O2" s="0">
-        <v>0.039</v>
+        <v>0.036999999999999998</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="B3" s="0">
         <v>2.6099999999999999</v>
@@ -1667,7 +1298,7 @@
         <v>2.1850000000000001</v>
       </c>
       <c r="L3" s="0">
-        <v>2.5449999999999999</v>
+        <v>2.4670000000000001</v>
       </c>
       <c r="M3" s="0">
         <v>2.8399999999999999</v>
@@ -1676,12 +1307,12 @@
         <v>1.6699999999999999</v>
       </c>
       <c r="O3" s="0">
-        <v>1.5229999999999999</v>
+        <v>1.4390000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="B4" s="0">
         <v>1</v>
@@ -1728,7 +1359,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="B5" s="0">
         <v>1000000</v>
@@ -1775,7 +1406,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="B6" s="0">
         <v>27</v>
@@ -1824,7 +1455,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O4"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1848,54 +1479,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="B2" s="0">
         <v>0.0080000000000000002</v>
@@ -1922,27 +1553,27 @@
         <v>0.0080000000000000002</v>
       </c>
       <c r="J2" s="0">
-        <v>7.8559999999999999</v>
+        <v>8.4390000000000001</v>
       </c>
       <c r="K2" s="0">
-        <v>7.0380000000000003</v>
+        <v>3.7959999999999998</v>
       </c>
       <c r="L2" s="0">
-        <v>4.2720000000000002</v>
+        <v>5.4790000000000001</v>
       </c>
       <c r="M2" s="0">
-        <v>2.1619999999999999</v>
+        <v>5.7489999999999997</v>
       </c>
       <c r="N2" s="0">
-        <v>3.5819999999999999</v>
+        <v>1.379</v>
       </c>
       <c r="O2" s="0">
-        <v>4.4189999999999996</v>
+        <v>9.0250000000000004</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="B3" s="0">
         <v>0.95599999999999996</v>
@@ -1975,7 +1606,7 @@
         <v>0.47899999999999998</v>
       </c>
       <c r="L3" s="0">
-        <v>0.89000000000000001</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="M3" s="0">
         <v>0.88300000000000001</v>
@@ -1984,12 +1615,12 @@
         <v>0.60799999999999998</v>
       </c>
       <c r="O3" s="0">
-        <v>0.33800000000000002</v>
+        <v>0.27700000000000002</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="B4" s="0">
         <v>27</v>

--- a/Figures/Table_2.xlsx
+++ b/Figures/Table_2.xlsx
@@ -18,7 +18,283 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>d_{min}</t>
+  </si>
+  <si>
+    <t>d_{max}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1848</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1890</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1918</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1957</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1968</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>d_{min}</t>
+  </si>
+  <si>
+    <t>d_{max}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>d_{min}</t>
+  </si>
+  <si>
+    <t>d_{max}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1848</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1890</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1918</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1957</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1968</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>d_{min}</t>
+  </si>
+  <si>
+    <t>d_{max}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1848</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1890</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1918</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1957</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1968</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1848</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1890</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1918</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1957</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1968</t>
+  </si>
   <si>
     <t>Var1</t>
   </si>
@@ -361,54 +637,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>19</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="B2" s="0">
         <v>0.073999999999999996</v>
@@ -455,7 +731,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="B3" s="0">
         <v>2.4700000000000002</v>
@@ -502,7 +778,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="B4" s="0">
         <v>21.977</v>
@@ -549,7 +825,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="B5" s="0">
         <v>3643.7660000000001</v>
@@ -596,7 +872,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="B6" s="0">
         <v>27</v>
@@ -663,36 +939,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="B2" s="0">
         <v>0.081000000000000003</v>
@@ -721,7 +997,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="B3" s="0">
         <v>3.3170000000000002</v>
@@ -750,7 +1026,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="B4" s="0">
         <v>11.664</v>
@@ -779,7 +1055,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>116</v>
       </c>
       <c r="B5" s="0">
         <v>4550</v>
@@ -808,7 +1084,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>117</v>
       </c>
       <c r="B6" s="0">
         <v>27</v>
@@ -863,54 +1139,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>40</v>
+        <v>132</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>41</v>
+        <v>133</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>47</v>
+        <v>139</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>49</v>
+        <v>141</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>50</v>
+        <v>142</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>51</v>
+        <v>143</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>52</v>
+        <v>144</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="B2" s="0">
         <v>0.082000000000000003</v>
@@ -949,7 +1225,7 @@
         <v>0.11</v>
       </c>
       <c r="N2" s="0">
-        <v>1.151</v>
+        <v>0.85799999999999998</v>
       </c>
       <c r="O2" s="0">
         <v>0.13800000000000001</v>
@@ -957,7 +1233,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="B3" s="0">
         <v>2.8919999999999999</v>
@@ -996,7 +1272,7 @@
         <v>3.7789999999999999</v>
       </c>
       <c r="N3" s="0">
-        <v>10</v>
+        <v>7.242</v>
       </c>
       <c r="O3" s="0">
         <v>4.6420000000000003</v>
@@ -1004,7 +1280,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="B4" s="0">
         <v>21.977</v>
@@ -1051,7 +1327,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="B5" s="0">
         <v>3643.7660000000001</v>
@@ -1098,7 +1374,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="B6" s="0">
         <v>27</v>
@@ -1171,54 +1447,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>60</v>
+        <v>152</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>61</v>
+        <v>153</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>62</v>
+        <v>154</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>64</v>
+        <v>156</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>65</v>
+        <v>157</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>66</v>
+        <v>158</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>67</v>
+        <v>159</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>68</v>
+        <v>160</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>70</v>
+        <v>162</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>71</v>
+        <v>163</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>72</v>
+        <v>164</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>73</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>55</v>
+        <v>147</v>
       </c>
       <c r="B2" s="0">
         <v>0.031</v>
@@ -1265,7 +1541,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>56</v>
+        <v>148</v>
       </c>
       <c r="B3" s="0">
         <v>2.6099999999999999</v>
@@ -1312,7 +1588,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>57</v>
+        <v>149</v>
       </c>
       <c r="B4" s="0">
         <v>1</v>
@@ -1359,7 +1635,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>58</v>
+        <v>150</v>
       </c>
       <c r="B5" s="0">
         <v>1000000</v>
@@ -1406,7 +1682,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>59</v>
+        <v>151</v>
       </c>
       <c r="B6" s="0">
         <v>27</v>
@@ -1469,7 +1745,7 @@
     <col min="7" max="7" width="7.7109375" customWidth="true"/>
     <col min="8" max="8" width="11.5703125" customWidth="true"/>
     <col min="9" max="9" width="9.28515625" customWidth="true"/>
-    <col min="10" max="10" width="5.7109375" customWidth="true"/>
+    <col min="10" max="10" width="4.7109375" customWidth="true"/>
     <col min="11" max="11" width="20.28515625" customWidth="true"/>
     <col min="12" max="12" width="20.28515625" customWidth="true"/>
     <col min="13" max="13" width="20.28515625" customWidth="true"/>
@@ -1479,54 +1755,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>74</v>
+        <v>166</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>81</v>
+        <v>173</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>83</v>
+        <v>175</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>84</v>
+        <v>176</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>85</v>
+        <v>177</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>86</v>
+        <v>178</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>87</v>
+        <v>179</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>88</v>
+        <v>180</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>89</v>
+        <v>181</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>90</v>
+        <v>182</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>91</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>75</v>
+        <v>167</v>
       </c>
       <c r="B2" s="0">
         <v>0.0080000000000000002</v>
@@ -1553,27 +1829,27 @@
         <v>0.0080000000000000002</v>
       </c>
       <c r="J2" s="0">
-        <v>8.4390000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="K2" s="0">
-        <v>3.7959999999999998</v>
+        <v>0.062</v>
       </c>
       <c r="L2" s="0">
-        <v>5.4790000000000001</v>
+        <v>0.002</v>
       </c>
       <c r="M2" s="0">
-        <v>5.7489999999999997</v>
+        <v>0.0050000000000000001</v>
       </c>
       <c r="N2" s="0">
-        <v>1.379</v>
+        <v>0.064000000000000001</v>
       </c>
       <c r="O2" s="0">
-        <v>9.0250000000000004</v>
+        <v>0.10299999999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>76</v>
+        <v>168</v>
       </c>
       <c r="B3" s="0">
         <v>0.95599999999999996</v>
@@ -1600,27 +1876,27 @@
         <v>0.96199999999999997</v>
       </c>
       <c r="J3" s="0">
-        <v>0.85799999999999998</v>
+        <v>0.95999999999999996</v>
       </c>
       <c r="K3" s="0">
-        <v>0.47899999999999998</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="L3" s="0">
-        <v>0.88500000000000001</v>
+        <v>0.90700000000000003</v>
       </c>
       <c r="M3" s="0">
-        <v>0.88300000000000001</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="N3" s="0">
-        <v>0.60799999999999998</v>
+        <v>0.72999999999999998</v>
       </c>
       <c r="O3" s="0">
-        <v>0.27700000000000002</v>
+        <v>0.69399999999999995</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="B4" s="0">
         <v>27</v>

--- a/Figures/Table_2.xlsx
+++ b/Figures/Table_2.xlsx
@@ -15,7 +15,109 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+  <si>
+    <t>Preceeding decade</t>
+  </si>
+  <si>
+    <t>Main waves</t>
+  </si>
+  <si>
+    <t>Post-pandemic decade I</t>
+  </si>
+  <si>
+    <t>Post-pandemic decade II</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1848-49</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1890-91</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1918-19</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1968-70</t>
+  </si>
+  <si>
+    <t>Preceeding decade</t>
+  </si>
+  <si>
+    <t>42-104</t>
+  </si>
+  <si>
+    <t>2-7</t>
+  </si>
+  <si>
+    <t>120-297</t>
+  </si>
+  <si>
+    <t>17-173</t>
+  </si>
+  <si>
+    <t>Main waves</t>
+  </si>
+  <si>
+    <t>285-459</t>
+  </si>
+  <si>
+    <t>157-574</t>
+  </si>
+  <si>
+    <t>1265-3301</t>
+  </si>
+  <si>
+    <t>96-148</t>
+  </si>
+  <si>
+    <t>Post-pandemic decade I</t>
+  </si>
+  <si>
+    <t>55-193</t>
+  </si>
+  <si>
+    <t>122-533</t>
+  </si>
+  <si>
+    <t>196-734</t>
+  </si>
+  <si>
+    <t>10-135</t>
+  </si>
+  <si>
+    <t>Post-pandemic decade II</t>
+  </si>
+  <si>
+    <t>14-58</t>
+  </si>
+  <si>
+    <t>120-288</t>
+  </si>
+  <si>
+    <t>118-567</t>
+  </si>
+  <si>
+    <t>4-42</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1848-49</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1890-91</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1918-19</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1968-70</t>
+  </si>
   <si>
     <t>Preceeding decade</t>
   </si>
@@ -174,24 +276,24 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0">
         <v>64.666666666666671</v>
@@ -208,7 +310,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0">
         <v>3.7000000000000002</v>
@@ -225,7 +327,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0">
         <v>209.09664764404297</v>
@@ -242,7 +344,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0">
         <v>67.731188201904303</v>
@@ -275,87 +377,87 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Figures/Table_2.xlsx
+++ b/Figures/Table_2.xlsx
@@ -15,7 +15,109 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+  <si>
+    <t>Preceeding decade</t>
+  </si>
+  <si>
+    <t>Main waves</t>
+  </si>
+  <si>
+    <t>Post-pandemic decade I</t>
+  </si>
+  <si>
+    <t>Post-pandemic decade II</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1848-49</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1890-91</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1918-19</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1968-70</t>
+  </si>
+  <si>
+    <t>Preceeding decade</t>
+  </si>
+  <si>
+    <t>42-104</t>
+  </si>
+  <si>
+    <t>2-7</t>
+  </si>
+  <si>
+    <t>120-297</t>
+  </si>
+  <si>
+    <t>17-173</t>
+  </si>
+  <si>
+    <t>Main waves</t>
+  </si>
+  <si>
+    <t>285-459</t>
+  </si>
+  <si>
+    <t>157-574</t>
+  </si>
+  <si>
+    <t>1265-3301</t>
+  </si>
+  <si>
+    <t>96-148</t>
+  </si>
+  <si>
+    <t>Post-pandemic decade I</t>
+  </si>
+  <si>
+    <t>55-193</t>
+  </si>
+  <si>
+    <t>122-533</t>
+  </si>
+  <si>
+    <t>196-734</t>
+  </si>
+  <si>
+    <t>10-135</t>
+  </si>
+  <si>
+    <t>Post-pandemic decade II</t>
+  </si>
+  <si>
+    <t>14-58</t>
+  </si>
+  <si>
+    <t>120-288</t>
+  </si>
+  <si>
+    <t>118-567</t>
+  </si>
+  <si>
+    <t>4-42</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1848-49</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1890-91</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1918-19</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1968-70</t>
+  </si>
   <si>
     <t>Preceeding decade</t>
   </si>
@@ -276,24 +378,24 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="B3" s="0">
         <v>64.666666666666671</v>
@@ -310,7 +412,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="B4" s="0">
         <v>3.7000000000000002</v>
@@ -327,7 +429,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="B5" s="0">
         <v>209.09664764404297</v>
@@ -344,7 +446,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="B6" s="0">
         <v>67.731188201904303</v>
@@ -377,87 +479,87 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/Figures/Table_2.xlsx
+++ b/Figures/Table_2.xlsx
@@ -15,7 +15,109 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+  <si>
+    <t>Preceeding decade</t>
+  </si>
+  <si>
+    <t>Main waves</t>
+  </si>
+  <si>
+    <t>Post-pandemic decade I</t>
+  </si>
+  <si>
+    <t>Post-pandemic decade II</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1848-49</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1890-91</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1918-19</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1968-70</t>
+  </si>
+  <si>
+    <t>Preceeding decade</t>
+  </si>
+  <si>
+    <t>42-104</t>
+  </si>
+  <si>
+    <t>2-7</t>
+  </si>
+  <si>
+    <t>120-297</t>
+  </si>
+  <si>
+    <t>17-173</t>
+  </si>
+  <si>
+    <t>Main waves</t>
+  </si>
+  <si>
+    <t>285-459</t>
+  </si>
+  <si>
+    <t>157-574</t>
+  </si>
+  <si>
+    <t>1265-3301</t>
+  </si>
+  <si>
+    <t>96-148</t>
+  </si>
+  <si>
+    <t>Post-pandemic decade I</t>
+  </si>
+  <si>
+    <t>55-193</t>
+  </si>
+  <si>
+    <t>122-533</t>
+  </si>
+  <si>
+    <t>196-734</t>
+  </si>
+  <si>
+    <t>10-135</t>
+  </si>
+  <si>
+    <t>Post-pandemic decade II</t>
+  </si>
+  <si>
+    <t>14-58</t>
+  </si>
+  <si>
+    <t>120-288</t>
+  </si>
+  <si>
+    <t>118-567</t>
+  </si>
+  <si>
+    <t>4-42</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1848-49</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1890-91</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1918-19</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1968-70</t>
+  </si>
   <si>
     <t>Preceeding decade</t>
   </si>
@@ -378,24 +480,24 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="B3" s="0">
         <v>64.666666666666671</v>
@@ -412,7 +514,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="B4" s="0">
         <v>3.7000000000000002</v>
@@ -429,7 +531,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="B5" s="0">
         <v>209.09664764404297</v>
@@ -446,7 +548,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="B6" s="0">
         <v>67.731188201904303</v>
@@ -479,87 +581,87 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/Figures/Table_2.xlsx
+++ b/Figures/Table_2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
   <si>
     <t>Preceeding decade</t>
   </si>
@@ -420,6 +420,126 @@
   </si>
   <si>
     <t>England &amp; Wales 1918-19</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1968-70</t>
+  </si>
+  <si>
+    <t>Preceeding decade</t>
+  </si>
+  <si>
+    <t>Main waves</t>
+  </si>
+  <si>
+    <t>Post-pandemic decade I</t>
+  </si>
+  <si>
+    <t>Post-pandemic decade II</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1848-49</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1890-91</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1918-19</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1967-59</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1968-70</t>
+  </si>
+  <si>
+    <t>Preceeding decade</t>
+  </si>
+  <si>
+    <t>42-104</t>
+  </si>
+  <si>
+    <t>2-7</t>
+  </si>
+  <si>
+    <t>120-297</t>
+  </si>
+  <si>
+    <t>29-361</t>
+  </si>
+  <si>
+    <t>17-173</t>
+  </si>
+  <si>
+    <t>Main waves</t>
+  </si>
+  <si>
+    <t>285-459</t>
+  </si>
+  <si>
+    <t>157-574</t>
+  </si>
+  <si>
+    <t>1265-3301</t>
+  </si>
+  <si>
+    <t>53-173</t>
+  </si>
+  <si>
+    <t>96-148</t>
+  </si>
+  <si>
+    <t>Post-pandemic decade I</t>
+  </si>
+  <si>
+    <t>55-193</t>
+  </si>
+  <si>
+    <t>122-533</t>
+  </si>
+  <si>
+    <t>196-734</t>
+  </si>
+  <si>
+    <t>17-154</t>
+  </si>
+  <si>
+    <t>10-135</t>
+  </si>
+  <si>
+    <t>Post-pandemic decade II</t>
+  </si>
+  <si>
+    <t>14-58</t>
+  </si>
+  <si>
+    <t>120-288</t>
+  </si>
+  <si>
+    <t>118-567</t>
+  </si>
+  <si>
+    <t>14-148</t>
+  </si>
+  <si>
+    <t>4-42</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1848-49</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1890-91</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1918-19</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1967-59</t>
   </si>
   <si>
     <t>England &amp; Wales 1968-70</t>
@@ -468,7 +588,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E6"/>
+  <dimension ref="A2:E7"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="true"/>
@@ -480,24 +600,24 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="B3" s="0">
         <v>64.666666666666671</v>
@@ -514,7 +634,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="B4" s="0">
         <v>3.7000000000000002</v>
@@ -531,7 +651,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="B5" s="0">
         <v>209.09664764404297</v>
@@ -548,18 +668,35 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="B6" s="0">
+        <v>104.23189201354981</v>
+      </c>
+      <c r="C6" s="0">
+        <v>125.33512496948242</v>
+      </c>
+      <c r="D6" s="0">
+        <v>64.39082221984863</v>
+      </c>
+      <c r="E6" s="0">
+        <v>54.66164150238037</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="0">
         <v>67.731188201904303</v>
       </c>
-      <c r="C6" s="0">
+      <c r="C7" s="0">
         <v>113.77877807617188</v>
       </c>
-      <c r="D6" s="0">
+      <c r="D7" s="0">
         <v>40.869054412841798</v>
       </c>
-      <c r="E6" s="0">
+      <c r="E7" s="0">
         <v>14.211746621131898</v>
       </c>
     </row>
@@ -569,7 +706,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E6"/>
+  <dimension ref="A2:E7"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="true"/>
@@ -581,87 +718,104 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>130</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
